--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\Documents\Unified Functional Testing\man\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\branchgit\TestUFT\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43EF974-8EE8-429D-A21D-79BC47CAC408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6885C-9717-4CBD-B6F4-41E3FF691FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32F6385F-67FC-4DA5-9E7D-2B8FFC2DC294}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Execute</t>
   </si>
@@ -46,16 +46,25 @@
   </si>
   <si>
     <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>TC3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C1A5CE-3BED-4CF1-9E0D-F8BCE35D15FE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +442,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>